--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Asgr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08670002976221609</v>
+        <v>0.6794593333333333</v>
       </c>
       <c r="H2">
-        <v>0.08670002976221609</v>
+        <v>2.038378</v>
       </c>
       <c r="I2">
-        <v>0.136029907598957</v>
+        <v>0.4943552576500507</v>
       </c>
       <c r="J2">
-        <v>0.136029907598957</v>
+        <v>0.4943552576500506</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.77526628094691</v>
+        <v>0.3844953333333334</v>
       </c>
       <c r="N2">
-        <v>2.77526628094691</v>
+        <v>1.153486</v>
       </c>
       <c r="O2">
-        <v>0.7377865607488481</v>
+        <v>0.08259674426677835</v>
       </c>
       <c r="P2">
-        <v>0.7377865607488481</v>
+        <v>0.08259674426677834</v>
       </c>
       <c r="Q2">
-        <v>0.2406156691561719</v>
+        <v>0.2612489428564445</v>
       </c>
       <c r="R2">
-        <v>0.2406156691561719</v>
+        <v>2.351240485708</v>
       </c>
       <c r="S2">
-        <v>0.1003610376864181</v>
+        <v>0.04083213479305856</v>
       </c>
       <c r="T2">
-        <v>0.1003610376864181</v>
+        <v>0.04083213479305855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08670002976221609</v>
+        <v>0.6794593333333333</v>
       </c>
       <c r="H3">
-        <v>0.08670002976221609</v>
+        <v>2.038378</v>
       </c>
       <c r="I3">
-        <v>0.136029907598957</v>
+        <v>0.4943552576500507</v>
       </c>
       <c r="J3">
-        <v>0.136029907598957</v>
+        <v>0.4943552576500506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.314058228551067</v>
+        <v>2.825899333333334</v>
       </c>
       <c r="N3">
-        <v>0.314058228551067</v>
+        <v>8.477698</v>
       </c>
       <c r="O3">
-        <v>0.083490345379943</v>
+        <v>0.6070557021732195</v>
       </c>
       <c r="P3">
-        <v>0.083490345379943</v>
+        <v>0.6070557021732194</v>
       </c>
       <c r="Q3">
-        <v>0.02722885776244638</v>
+        <v>1.920083677093778</v>
       </c>
       <c r="R3">
-        <v>0.02722885776244638</v>
+        <v>17.280753093844</v>
       </c>
       <c r="S3">
-        <v>0.01135718396743865</v>
+        <v>0.3001011780557744</v>
       </c>
       <c r="T3">
-        <v>0.01135718396743865</v>
+        <v>0.3001011780557742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08670002976221609</v>
+        <v>0.6794593333333333</v>
       </c>
       <c r="H4">
-        <v>0.08670002976221609</v>
+        <v>2.038378</v>
       </c>
       <c r="I4">
-        <v>0.136029907598957</v>
+        <v>0.4943552576500507</v>
       </c>
       <c r="J4">
-        <v>0.136029907598957</v>
+        <v>0.4943552576500506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.672286813606139</v>
+        <v>0.5626513333333333</v>
       </c>
       <c r="N4">
-        <v>0.672286813606139</v>
+        <v>1.687954</v>
       </c>
       <c r="O4">
-        <v>0.1787230938712088</v>
+        <v>0.1208679644764527</v>
       </c>
       <c r="P4">
-        <v>0.1787230938712088</v>
+        <v>0.1208679644764527</v>
       </c>
       <c r="Q4">
-        <v>0.05828728674839767</v>
+        <v>0.3822986998457777</v>
       </c>
       <c r="R4">
-        <v>0.05828728674839767</v>
+        <v>3.440688298612</v>
       </c>
       <c r="S4">
-        <v>0.02431168594510025</v>
+        <v>0.05975171372039396</v>
       </c>
       <c r="T4">
-        <v>0.02431168594510025</v>
+        <v>0.05975171372039395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.550660027982033</v>
+        <v>0.6794593333333333</v>
       </c>
       <c r="H5">
-        <v>0.550660027982033</v>
+        <v>2.038378</v>
       </c>
       <c r="I5">
-        <v>0.8639700924010429</v>
+        <v>0.4943552576500507</v>
       </c>
       <c r="J5">
-        <v>0.8639700924010429</v>
+        <v>0.4943552576500506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.77526628094691</v>
+        <v>0.8820446666666667</v>
       </c>
       <c r="N5">
-        <v>2.77526628094691</v>
+        <v>2.646134</v>
       </c>
       <c r="O5">
-        <v>0.7377865607488481</v>
+        <v>0.1894795890835496</v>
       </c>
       <c r="P5">
-        <v>0.7377865607488481</v>
+        <v>0.1894795890835495</v>
       </c>
       <c r="Q5">
-        <v>1.528228207923818</v>
+        <v>0.5993134811835555</v>
       </c>
       <c r="R5">
-        <v>1.528228207923818</v>
+        <v>5.393821330651999</v>
       </c>
       <c r="S5">
-        <v>0.6374255230624299</v>
+        <v>0.09367023108082387</v>
       </c>
       <c r="T5">
-        <v>0.6374255230624299</v>
+        <v>0.09367023108082384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.550660027982033</v>
+        <v>0.09050566666666666</v>
       </c>
       <c r="H6">
-        <v>0.550660027982033</v>
+        <v>0.271517</v>
       </c>
       <c r="I6">
-        <v>0.8639700924010429</v>
+        <v>0.06584934516138263</v>
       </c>
       <c r="J6">
-        <v>0.8639700924010429</v>
+        <v>0.06584934516138263</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.314058228551067</v>
+        <v>0.3844953333333334</v>
       </c>
       <c r="N6">
-        <v>0.314058228551067</v>
+        <v>1.153486</v>
       </c>
       <c r="O6">
-        <v>0.083490345379943</v>
+        <v>0.08259674426677835</v>
       </c>
       <c r="P6">
-        <v>0.083490345379943</v>
+        <v>0.08259674426677834</v>
       </c>
       <c r="Q6">
-        <v>0.1729393129219183</v>
+        <v>0.03479900647355556</v>
       </c>
       <c r="R6">
-        <v>0.1729393129219183</v>
+        <v>0.313191058262</v>
       </c>
       <c r="S6">
-        <v>0.07213316141250434</v>
+        <v>0.00543894152242954</v>
       </c>
       <c r="T6">
-        <v>0.07213316141250434</v>
+        <v>0.005438941522429539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.550660027982033</v>
+        <v>0.09050566666666666</v>
       </c>
       <c r="H7">
-        <v>0.550660027982033</v>
+        <v>0.271517</v>
       </c>
       <c r="I7">
-        <v>0.8639700924010429</v>
+        <v>0.06584934516138263</v>
       </c>
       <c r="J7">
-        <v>0.8639700924010429</v>
+        <v>0.06584934516138263</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.672286813606139</v>
+        <v>2.825899333333334</v>
       </c>
       <c r="N7">
-        <v>0.672286813606139</v>
+        <v>8.477698</v>
       </c>
       <c r="O7">
-        <v>0.1787230938712088</v>
+        <v>0.6070557021732195</v>
       </c>
       <c r="P7">
-        <v>0.1787230938712088</v>
+        <v>0.6070557021732194</v>
       </c>
       <c r="Q7">
-        <v>0.3702014755923083</v>
+        <v>0.2557599030962223</v>
       </c>
       <c r="R7">
-        <v>0.3702014755923083</v>
+        <v>2.301839127866</v>
       </c>
       <c r="S7">
-        <v>0.1544114079261086</v>
+        <v>0.03997422046458982</v>
       </c>
       <c r="T7">
-        <v>0.1544114079261086</v>
+        <v>0.03997422046458982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.09050566666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.271517</v>
+      </c>
+      <c r="I8">
+        <v>0.06584934516138263</v>
+      </c>
+      <c r="J8">
+        <v>0.06584934516138263</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5626513333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.687954</v>
+      </c>
+      <c r="O8">
+        <v>0.1208679644764527</v>
+      </c>
+      <c r="P8">
+        <v>0.1208679644764527</v>
+      </c>
+      <c r="Q8">
+        <v>0.05092313402422222</v>
+      </c>
+      <c r="R8">
+        <v>0.458308206218</v>
+      </c>
+      <c r="S8">
+        <v>0.007959076311763671</v>
+      </c>
+      <c r="T8">
+        <v>0.007959076311763669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.09050566666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.271517</v>
+      </c>
+      <c r="I9">
+        <v>0.06584934516138263</v>
+      </c>
+      <c r="J9">
+        <v>0.06584934516138263</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8820446666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.646134</v>
+      </c>
+      <c r="O9">
+        <v>0.1894795890835496</v>
+      </c>
+      <c r="P9">
+        <v>0.1894795890835495</v>
+      </c>
+      <c r="Q9">
+        <v>0.07983004058644444</v>
+      </c>
+      <c r="R9">
+        <v>0.718470365278</v>
+      </c>
+      <c r="S9">
+        <v>0.0124771068625996</v>
+      </c>
+      <c r="T9">
+        <v>0.0124771068625996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.030059</v>
+      </c>
+      <c r="H10">
+        <v>0.09017699999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="J10">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.3844953333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.153486</v>
+      </c>
+      <c r="O10">
+        <v>0.08259674426677835</v>
+      </c>
+      <c r="P10">
+        <v>0.08259674426677834</v>
+      </c>
+      <c r="Q10">
+        <v>0.01155754522466667</v>
+      </c>
+      <c r="R10">
+        <v>0.104017907022</v>
+      </c>
+      <c r="S10">
+        <v>0.001806396762147963</v>
+      </c>
+      <c r="T10">
+        <v>0.001806396762147963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.030059</v>
+      </c>
+      <c r="H11">
+        <v>0.09017699999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="J11">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.825899333333334</v>
+      </c>
+      <c r="N11">
+        <v>8.477698</v>
+      </c>
+      <c r="O11">
+        <v>0.6070557021732195</v>
+      </c>
+      <c r="P11">
+        <v>0.6070557021732194</v>
+      </c>
+      <c r="Q11">
+        <v>0.08494370806066667</v>
+      </c>
+      <c r="R11">
+        <v>0.7644933725459999</v>
+      </c>
+      <c r="S11">
+        <v>0.01327635204733154</v>
+      </c>
+      <c r="T11">
+        <v>0.01327635204733153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.030059</v>
+      </c>
+      <c r="H12">
+        <v>0.09017699999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="J12">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5626513333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.687954</v>
+      </c>
+      <c r="O12">
+        <v>0.1208679644764527</v>
+      </c>
+      <c r="P12">
+        <v>0.1208679644764527</v>
+      </c>
+      <c r="Q12">
+        <v>0.01691273642866667</v>
+      </c>
+      <c r="R12">
+        <v>0.152214627858</v>
+      </c>
+      <c r="S12">
+        <v>0.002643391112033178</v>
+      </c>
+      <c r="T12">
+        <v>0.002643391112033178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.030059</v>
+      </c>
+      <c r="H13">
+        <v>0.09017699999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="J13">
+        <v>0.02187007221874874</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8820446666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.646134</v>
+      </c>
+      <c r="O13">
+        <v>0.1894795890835496</v>
+      </c>
+      <c r="P13">
+        <v>0.1894795890835495</v>
+      </c>
+      <c r="Q13">
+        <v>0.02651338063533333</v>
+      </c>
+      <c r="R13">
+        <v>0.238620425718</v>
+      </c>
+      <c r="S13">
+        <v>0.004143932297236064</v>
+      </c>
+      <c r="T13">
+        <v>0.004143932297236063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5744113333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.723234</v>
+      </c>
+      <c r="I14">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="J14">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.3844953333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.153486</v>
+      </c>
+      <c r="O14">
+        <v>0.08259674426677835</v>
+      </c>
+      <c r="P14">
+        <v>0.08259674426677834</v>
+      </c>
+      <c r="Q14">
+        <v>0.2208584770804445</v>
+      </c>
+      <c r="R14">
+        <v>1.987726293724</v>
+      </c>
+      <c r="S14">
+        <v>0.03451927118914229</v>
+      </c>
+      <c r="T14">
+        <v>0.03451927118914228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5744113333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.723234</v>
+      </c>
+      <c r="I15">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="J15">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.825899333333334</v>
+      </c>
+      <c r="N15">
+        <v>8.477698</v>
+      </c>
+      <c r="O15">
+        <v>0.6070557021732195</v>
+      </c>
+      <c r="P15">
+        <v>0.6070557021732194</v>
+      </c>
+      <c r="Q15">
+        <v>1.623228603925778</v>
+      </c>
+      <c r="R15">
+        <v>14.609057435332</v>
+      </c>
+      <c r="S15">
+        <v>0.2537039516055238</v>
+      </c>
+      <c r="T15">
+        <v>0.2537039516055237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5744113333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.723234</v>
+      </c>
+      <c r="I16">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="J16">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5626513333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.687954</v>
+      </c>
+      <c r="O16">
+        <v>0.1208679644764527</v>
+      </c>
+      <c r="P16">
+        <v>0.1208679644764527</v>
+      </c>
+      <c r="Q16">
+        <v>0.3231933025817778</v>
+      </c>
+      <c r="R16">
+        <v>2.908739723236</v>
+      </c>
+      <c r="S16">
+        <v>0.05051378333226192</v>
+      </c>
+      <c r="T16">
+        <v>0.05051378333226191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5744113333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.723234</v>
+      </c>
+      <c r="I17">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="J17">
+        <v>0.4179253249698179</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8820446666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.646134</v>
+      </c>
+      <c r="O17">
+        <v>0.1894795890835496</v>
+      </c>
+      <c r="P17">
+        <v>0.1894795890835495</v>
+      </c>
+      <c r="Q17">
+        <v>0.5066564530395556</v>
+      </c>
+      <c r="R17">
+        <v>4.559908077356001</v>
+      </c>
+      <c r="S17">
+        <v>0.07918831884289002</v>
+      </c>
+      <c r="T17">
+        <v>0.07918831884289</v>
       </c>
     </row>
   </sheetData>
